--- a/Switch Box BOM.xlsx
+++ b/Switch Box BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4cc17b8640d0f1b9/Documents/College/Clubs/Critical Tinkers/Switch Box Robot/Switch-Box-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{938F1E7D-1C6B-4156-A950-8BACAA5746B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECC8C58F-77B8-43FB-A60C-FEDC99522C19}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{938F1E7D-1C6B-4156-A950-8BACAA5746B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C68EE6A7-DF87-48EA-936D-2D232BBD16B3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="3405" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,27 +132,15 @@
     <t>J1</t>
   </si>
   <si>
-    <t>TVS Diode</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>SSW-104-01-T-D</t>
   </si>
   <si>
     <t>SSQ-102-01-G-S</t>
   </si>
   <si>
-    <t>SMBJ5.0A-13-F</t>
-  </si>
-  <si>
     <t>SAM1212-04-ND</t>
   </si>
   <si>
-    <t>SMBJ5.0A-FDICT-ND</t>
-  </si>
-  <si>
     <t>SMB</t>
   </si>
   <si>
@@ -180,7 +168,19 @@
     <t>https://www.digikey.com/en/products/detail/e-switch/100DP1T2B3M2QEH/4027506?s=N4IgTCBcDaIKIHECsBGAbCgtAOQCIgF0BfIA</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/diodes-incorporated/SMBJ5-0A-13-F/725039?s=N4IgTCBcDaIMoFkBCApArAOgAwEEC0AYgCICSAwgCp4ByRIAugL5A</t>
+    <t>PMOS</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SSM3J372R,LF</t>
+  </si>
+  <si>
+    <t>SSM3J372RLFTR-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/toshiba-semiconductor-and-storage/SSM3J372R-LF/9866017</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -590,10 +590,10 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -616,10 +616,10 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -735,27 +735,27 @@
         <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -773,9 +773,8 @@
     <hyperlink ref="I6" r:id="rId5" xr:uid="{C8B28E88-E759-4305-B277-1001C2FF559F}"/>
     <hyperlink ref="I7" r:id="rId6" xr:uid="{2364E500-43A8-4081-B8E2-BACD8D768384}"/>
     <hyperlink ref="I8" r:id="rId7" xr:uid="{5F678D44-26E2-488F-BC81-4319416C8F73}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{96F0A6A5-B897-47E4-83AA-18A598BC5AE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Switch Box BOM.xlsx
+++ b/Switch Box BOM.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4cc17b8640d0f1b9/Documents/College/Clubs/Critical Tinkers/Switch Box Robot/Switch-Box-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{938F1E7D-1C6B-4156-A950-8BACAA5746B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C68EE6A7-DF87-48EA-936D-2D232BBD16B3}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{938F1E7D-1C6B-4156-A950-8BACAA5746B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2E4E5D4B-0915-45CA-8423-D5D024DA147A}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="3405" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Part</t>
   </si>
@@ -63,9 +72,6 @@
     <t>8 Pin Connector</t>
   </si>
   <si>
-    <t>2 Pin Connector</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -96,12 +102,6 @@
     <t>311-2956-2-ND</t>
   </si>
   <si>
-    <t>Have Already?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>SW244-ND</t>
   </si>
   <si>
@@ -135,9 +135,6 @@
     <t>SSW-104-01-T-D</t>
   </si>
   <si>
-    <t>SSQ-102-01-G-S</t>
-  </si>
-  <si>
     <t>SAM1212-04-ND</t>
   </si>
   <si>
@@ -181,13 +178,40 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/toshiba-semiconductor-and-storage/SSM3J372R-LF/9866017</t>
+  </si>
+  <si>
+    <t>5v connector</t>
+  </si>
+  <si>
+    <t>282836-2</t>
+  </si>
+  <si>
+    <t>A98076-ND</t>
+  </si>
+  <si>
+    <t>Individual Cost</t>
+  </si>
+  <si>
+    <t>Cost for all of part</t>
+  </si>
+  <si>
+    <t>Ideal amount?</t>
+  </si>
+  <si>
+    <t>20 (they do be cheap)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total cost: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +226,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,9 +255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -521,10 +553,11 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="10" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,13 +580,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -561,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -575,25 +614,32 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2*E2</f>
+        <v>1.84</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -601,25 +647,32 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I9" si="0">H3*E3</f>
+        <v>0.74</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -627,25 +680,32 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -653,25 +713,32 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -679,25 +746,32 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>6.52</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>13.04</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -705,25 +779,32 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>3.22</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.44</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -731,48 +812,71 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.96</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2">
+        <f>SUM(I2:I9)</f>
+        <v>29.48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{AED0360A-D457-4830-AB37-CE1BECE47BD2}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{608DBF50-BFD8-4548-B8F4-80BBDB75E761}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{A5772C92-CFFB-4D34-BF2C-3122F462ADD9}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{E77FE8D2-4CC5-4507-AA23-2B910FB52FFA}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{C8B28E88-E759-4305-B277-1001C2FF559F}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{2364E500-43A8-4081-B8E2-BACD8D768384}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{5F678D44-26E2-488F-BC81-4319416C8F73}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{AED0360A-D457-4830-AB37-CE1BECE47BD2}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{608DBF50-BFD8-4548-B8F4-80BBDB75E761}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{A5772C92-CFFB-4D34-BF2C-3122F462ADD9}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{E77FE8D2-4CC5-4507-AA23-2B910FB52FFA}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{C8B28E88-E759-4305-B277-1001C2FF559F}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{2364E500-43A8-4081-B8E2-BACD8D768384}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{5F678D44-26E2-488F-BC81-4319416C8F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
